--- a/20140604_emd/광주광역시/04_구시군의원-03_남구-남구라선거구.xlsx
+++ b/20140604_emd/광주광역시/04_구시군의원-03_남구-남구라선거구.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="19440" windowHeight="9570"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="19440" windowHeight="9580"/>
   </bookViews>
   <sheets>
     <sheet name="라" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새정치민주연합   조기주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선거인수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,53 +93,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새정치민주연합   하주아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새정치민주연합     심병희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합진보당         배진하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속                임승호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속               고재윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속               한문덕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새정치민주연합
+조기주</t>
+  </si>
+  <si>
+    <t>새정치민주연합
+하주아</t>
+  </si>
+  <si>
+    <t>새정치민주연합
+심병희</t>
+  </si>
+  <si>
+    <t>통합진보당
+배진하</t>
+  </si>
+  <si>
+    <t>무소속
+임승호</t>
+  </si>
+  <si>
+    <t>무소속
+고재윤</t>
+  </si>
+  <si>
+    <t>무소속
+한문덕</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -167,6 +172,13 @@
       <sz val="8"/>
       <color indexed="61"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="61"/>
+      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -304,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +325,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,31 +352,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,9 +367,12 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,14 +663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -666,53 +681,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="42" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>15</v>
@@ -724,749 +739,749 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="33" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>64209</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>41016</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>7840</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>9691</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>5860</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>6077</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>3594</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>2312</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>4017</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>39391</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>1625</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="6">
         <v>23193</v>
       </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>182</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>167</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>33</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>30</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>23</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>24</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>10</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>12</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>12</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <v>144</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <v>23</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>4778</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>4768</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1079</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>1101</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>666</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>721</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>348</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>304</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>303</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <v>4522</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <v>246</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>19395</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>12358</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>1981</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>3368</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1249</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>1677</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>928</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>590</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>2017</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="6">
         <v>11810</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="6">
         <v>548</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="6">
         <v>7037</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>2245</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>2243</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>342</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>546</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>245</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>339</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>182</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>115</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>319</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <v>2088</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="6">
         <v>155</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>17150</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>10115</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1639</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>2822</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1004</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>1338</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>746</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>475</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <v>1698</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <v>9722</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="6">
         <v>393</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="6">
         <v>7035</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>30189</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>18305</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>3825</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>4207</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>2913</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>3004</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>1695</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>914</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>1155</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="6">
         <v>17713</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="6">
         <v>592</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="6">
         <v>11884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>2554</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>2550</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>506</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>554</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>416</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>465</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>221</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <v>145</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <v>166</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>2473</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="6">
         <v>77</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>27635</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>15755</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>3319</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>3653</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>2497</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>2539</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>1474</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>769</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <v>989</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>15240</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="6">
         <v>515</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="6">
         <v>11880</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>4595</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>2589</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>468</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>505</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>494</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>312</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>353</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>196</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="6">
         <v>153</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>2481</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="6">
         <v>108</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="6">
         <v>2006</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>186</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>186</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>30</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>45</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>36</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>25</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>18</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>7</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="6">
         <v>15</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="6">
         <v>176</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="6">
         <v>10</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>4409</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>2403</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>438</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>460</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>458</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>287</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>335</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <v>189</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="6">
         <v>138</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>2305</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="6">
         <v>98</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="6">
         <v>2006</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>5070</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>2789</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>446</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>468</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>510</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>333</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>257</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>294</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="6">
         <v>376</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <v>2684</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="6">
         <v>105</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="6">
         <v>2281</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>353</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>352</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>61</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>45</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>61</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>37</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>55</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <v>38</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="6">
         <v>42</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <v>339</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="6">
         <v>13</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>4717</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>2437</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>385</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>423</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>449</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <v>296</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>202</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <v>256</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="6">
         <v>334</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="6">
         <v>2345</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="6">
         <v>92</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="6">
         <v>2280</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>40</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>8</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>12</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>6</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <v>37</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="6">
         <v>3</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="6">
         <v>-40</v>
       </c>
     </row>
@@ -1484,6 +1499,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>